--- a/protobuff/backup/PeakArena/巅峰竞技场协议整理.xlsx
+++ b/protobuff/backup/PeakArena/巅峰竞技场协议整理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>巅峰竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>打开首页自动领奖，在线时自动领奖</t>
+  </si>
+  <si>
+    <t>重置和购买挑战次数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -446,13 +450,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F7"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="76.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
@@ -493,6 +500,11 @@
     <row r="7" spans="1:6">
       <c r="F7" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/protobuff/backup/PeakArena/巅峰竞技场协议整理.xlsx
+++ b/protobuff/backup/PeakArena/巅峰竞技场协议整理.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>巅峰竞技场</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,48 @@
   <si>
     <t>重置和购买挑战次数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试帐号：0601458763,0602673002,06027873</t>
+  </si>
+  <si>
+    <t>领奖</t>
+  </si>
+  <si>
+    <t>布阵：换法宝，换战队，换人，退出挑战后查看</t>
+  </si>
+  <si>
+    <t>挑战对手</t>
+  </si>
+  <si>
+    <t>查看对手信息</t>
+  </si>
+  <si>
+    <t>商店</t>
+  </si>
+  <si>
+    <t>布阵点击图标是否可以取消选择？1：可以</t>
+  </si>
+  <si>
+    <t>购买挑战次数没有提示？2：暂时没有</t>
+  </si>
+  <si>
+    <t>排行榜，商店，战报未做，是否隐藏？3：商店接入一下吧</t>
+  </si>
+  <si>
+    <t>结算数据怎样显示？4：结算显示吧，但倒计时一到还是强跳</t>
+  </si>
+  <si>
+    <t>优化：</t>
+  </si>
+  <si>
+    <t>挑战前不一定需要发送全队阵容，需要检查阵容是否改变过</t>
+  </si>
+  <si>
+    <t>所有请求动应该从NetMsg_PeakArena发送（fightStart:PeakArenaLogic,PeakArenMgr）</t>
+  </si>
+  <si>
+    <t>eArenaType.SYNC_RECORD战斗结束后发送战报同步记录</t>
   </si>
 </sst>
 </file>
@@ -110,17 +152,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -450,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="200" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -505,6 +555,70 @@
     <row r="8" spans="1:6">
       <c r="F8" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
